--- a/ky/downloads/data-excel/3.3.4.xlsx
+++ b/ky/downloads/data-excel/3.3.4.xlsx
@@ -698,11 +698,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -713,7 +711,7 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
@@ -735,7 +733,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -748,7 +746,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -806,8 +804,11 @@
       <c r="S3" s="9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
@@ -865,8 +866,11 @@
       <c r="S4" s="37">
         <v>1.9210869108320343</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="37">
+        <v>2.3381104968484805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -924,8 +928,11 @@
       <c r="S5" s="38">
         <v>1.020872301352429</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="38">
+        <v>2.0344672190198714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -983,8 +990,11 @@
       <c r="S6" s="38">
         <v>2.8415499553180767</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="38">
+        <v>2.6483752218014245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="S7" s="41">
         <v>1.5924017665043597</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="41">
+        <v>3.9852372948902328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1101,8 +1114,11 @@
       <c r="S8" s="38">
         <v>2.5011433798307796</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="38">
+        <v>4.5532396299967433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1160,8 +1176,11 @@
       <c r="S9" s="38">
         <v>0.70098698968147144</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="38">
+        <v>3.4291318466903733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>15</v>
       </c>
@@ -1219,8 +1238,11 @@
       <c r="S10" s="41">
         <v>2.2312343573160249</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="41">
+        <v>1.2089851778417198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1278,8 +1300,11 @@
       <c r="S11" s="38">
         <v>2.4764236727529938</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="38">
+        <v>1.521116134174612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1337,8 +1362,11 @@
       <c r="S12" s="38">
         <v>1.9888745417939038</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="38">
+        <v>0.9008846687447073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>16</v>
       </c>
@@ -1396,8 +1424,11 @@
       <c r="S13" s="41">
         <v>1.3057776932131271</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="41">
+        <v>3.694303753043183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1455,8 +1486,11 @@
       <c r="S14" s="38">
         <v>2.6056788910230639</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="38">
+        <v>4.0607488020791038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1514,8 +1548,11 @@
       <c r="S15" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="38">
+        <v>3.327319511401615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
@@ -1573,8 +1610,11 @@
       <c r="S16" s="41">
         <v>0.65058422463372112</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="41">
+        <v>0.32236434908190637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1632,8 +1672,11 @@
       <c r="S17" s="38">
         <v>0.65686622262510019</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1691,8 +1734,11 @@
       <c r="S18" s="38">
         <v>0.64442124527961442</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="38">
+        <v>0.63756806039044667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>19</v>
       </c>
@@ -1750,8 +1796,11 @@
       <c r="S19" s="41">
         <v>2.5553368555544047</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="41">
+        <v>2.1691385808410835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1809,8 +1858,11 @@
       <c r="S20" s="38">
         <v>1.807815324711445</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="38">
+        <v>1.5024572004578396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1868,8 +1920,11 @@
       <c r="S21" s="38">
         <v>3.2928586128833093</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="38">
+        <v>2.8259763748375066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>21</v>
       </c>
@@ -1927,8 +1982,11 @@
       <c r="S22" s="41">
         <v>1.8387963974300983</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="41">
+        <v>6.1744985943935555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1986,8 +2044,11 @@
       <c r="S23" s="38">
         <v>2.2260807622100529</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="38">
+        <v>4.3993752887090034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2045,8 +2106,11 @@
       <c r="S24" s="38">
         <v>1.4582467499325562</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="38">
+        <v>7.9169155696940479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>23</v>
       </c>
@@ -2104,8 +2168,11 @@
       <c r="S25" s="41">
         <v>1.2245886088767601</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T25" s="41">
+        <v>2.8763040791558883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2163,8 +2230,11 @@
       <c r="S26" s="38">
         <v>1.3105423773238725</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="38">
+        <v>1.4751329463567904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2222,8 +2292,11 @@
       <c r="S27" s="38">
         <v>1.1375464261135158</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="38">
+        <v>4.2954684675262591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>25</v>
       </c>
@@ -2281,8 +2354,11 @@
       <c r="S28" s="41">
         <v>2.4791112740241377</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T28" s="41">
+        <v>1.8177568880002077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2340,8 +2416,11 @@
       <c r="S29" s="38">
         <v>2.4279584268771761</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T29" s="38">
+        <v>1.581380197008345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -2399,8 +2478,11 @@
       <c r="S30" s="38">
         <v>2.5408788313520994</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="38">
+        <v>2.103608453446189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>27</v>
       </c>
@@ -2458,8 +2540,11 @@
       <c r="S31" s="41">
         <v>1.1238322680339958</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="41">
+        <v>1.3736037318066185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>34</v>
       </c>
@@ -2517,8 +2602,11 @@
       <c r="S32" s="39">
         <v>0.57553956834532372</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T32" s="39">
+        <v>2.249820014398848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>31</v>
       </c>
@@ -2575,6 +2663,9 @@
       </c>
       <c r="S33" s="40">
         <v>1.6467682173734046</v>
+      </c>
+      <c r="T33" s="40">
+        <v>0.53701655085009725</v>
       </c>
     </row>
   </sheetData>
